--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -48,6 +48,54 @@
   </si>
   <si>
     <t>Famalicão</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Farense</t>
+  </si>
+  <si>
+    <t>Casa Pia</t>
+  </si>
+  <si>
+    <t>Sporting</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>Rio Ave</t>
+  </si>
+  <si>
+    <t>Chaves</t>
+  </si>
+  <si>
+    <t>Estrela Amadora</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Benfica</t>
   </si>
   <si>
     <t>Gols Marcados</t>
@@ -411,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,6 +552,470 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -511,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -531,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -549,6 +1061,142 @@
       </c>
       <c r="E2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K303"/>
+  <dimension ref="A1:K307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11079,6 +11079,146 @@
         <v>2.35</v>
       </c>
     </row>
+    <row r="304" spans="1:11">
+      <c r="A304" t="s">
+        <v>12</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>2</v>
+      </c>
+      <c r="H304">
+        <v>3</v>
+      </c>
+      <c r="I304">
+        <v>4</v>
+      </c>
+      <c r="J304">
+        <v>1.72</v>
+      </c>
+      <c r="K304">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
+      <c r="A305" t="s">
+        <v>11</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305">
+        <v>2</v>
+      </c>
+      <c r="G305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>4</v>
+      </c>
+      <c r="I305">
+        <v>3</v>
+      </c>
+      <c r="J305">
+        <v>1.12</v>
+      </c>
+      <c r="K305">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
+      <c r="A306" t="s">
+        <v>18</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="F306">
+        <v>2</v>
+      </c>
+      <c r="G306">
+        <v>5</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <v>6</v>
+      </c>
+      <c r="J306">
+        <v>0.79</v>
+      </c>
+      <c r="K306">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
+      <c r="A307" t="s">
+        <v>17</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+      <c r="F307">
+        <v>5</v>
+      </c>
+      <c r="G307">
+        <v>2</v>
+      </c>
+      <c r="H307">
+        <v>6</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>2.79</v>
+      </c>
+      <c r="K307">
+        <v>0.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11086,7 +11226,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14132,6 +14272,46 @@
         <v>3.58</v>
       </c>
     </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>7</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154">
+        <v>3.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K307"/>
+  <dimension ref="A1:K309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11219,6 +11219,76 @@
         <v>0.79</v>
       </c>
     </row>
+    <row r="308" spans="1:11">
+      <c r="A308" t="s">
+        <v>28</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>2</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>12</v>
+      </c>
+      <c r="I308">
+        <v>4</v>
+      </c>
+      <c r="J308">
+        <v>2.7</v>
+      </c>
+      <c r="K308">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
+      <c r="A309" t="s">
+        <v>27</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>2</v>
+      </c>
+      <c r="H309">
+        <v>4</v>
+      </c>
+      <c r="I309">
+        <v>12</v>
+      </c>
+      <c r="J309">
+        <v>0.35</v>
+      </c>
+      <c r="K309">
+        <v>2.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11226,7 +11296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14312,6 +14382,26 @@
         <v>3.58</v>
       </c>
     </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" t="s">
+        <v>27</v>
+      </c>
+      <c r="F155">
+        <v>3.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K309"/>
+  <dimension ref="A1:K315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11289,6 +11289,216 @@
         <v>2.7</v>
       </c>
     </row>
+    <row r="310" spans="1:11">
+      <c r="A310" t="s">
+        <v>24</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+      <c r="G310">
+        <v>2</v>
+      </c>
+      <c r="H310">
+        <v>7</v>
+      </c>
+      <c r="I310">
+        <v>4</v>
+      </c>
+      <c r="J310">
+        <v>2.08</v>
+      </c>
+      <c r="K310">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
+      <c r="A311" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311">
+        <v>2</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+      <c r="H311">
+        <v>4</v>
+      </c>
+      <c r="I311">
+        <v>7</v>
+      </c>
+      <c r="J311">
+        <v>1.4</v>
+      </c>
+      <c r="K311">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" t="s">
+        <v>16</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
+      <c r="G312">
+        <v>3</v>
+      </c>
+      <c r="H312">
+        <v>14</v>
+      </c>
+      <c r="I312">
+        <v>3</v>
+      </c>
+      <c r="J312">
+        <v>0.89</v>
+      </c>
+      <c r="K312">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11">
+      <c r="A313" t="s">
+        <v>15</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>3</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+      <c r="H313">
+        <v>3</v>
+      </c>
+      <c r="I313">
+        <v>14</v>
+      </c>
+      <c r="J313">
+        <v>1.14</v>
+      </c>
+      <c r="K313">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11">
+      <c r="A314" t="s">
+        <v>26</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>5</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>5</v>
+      </c>
+      <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314">
+        <v>1.63</v>
+      </c>
+      <c r="K314">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11">
+      <c r="A315" t="s">
+        <v>25</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>5</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+      <c r="I315">
+        <v>5</v>
+      </c>
+      <c r="J315">
+        <v>0.26</v>
+      </c>
+      <c r="K315">
+        <v>1.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11296,7 +11506,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14402,6 +14612,66 @@
         <v>3.05</v>
       </c>
     </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156" t="s">
+        <v>23</v>
+      </c>
+      <c r="F156">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158">
+        <v>1.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K315"/>
+  <dimension ref="A1:K321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11499,6 +11499,216 @@
         <v>1.63</v>
       </c>
     </row>
+    <row r="316" spans="1:11">
+      <c r="A316" t="s">
+        <v>14</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>2</v>
+      </c>
+      <c r="H316">
+        <v>3</v>
+      </c>
+      <c r="I316">
+        <v>8</v>
+      </c>
+      <c r="J316">
+        <v>0.17</v>
+      </c>
+      <c r="K316">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11">
+      <c r="A317" t="s">
+        <v>13</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>2</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>8</v>
+      </c>
+      <c r="I317">
+        <v>3</v>
+      </c>
+      <c r="J317">
+        <v>1.53</v>
+      </c>
+      <c r="K317">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11">
+      <c r="A318" t="s">
+        <v>20</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>11</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>1.88</v>
+      </c>
+      <c r="K318">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11">
+      <c r="A319" t="s">
+        <v>19</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>11</v>
+      </c>
+      <c r="J319">
+        <v>0.76</v>
+      </c>
+      <c r="K319">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11">
+      <c r="A320" t="s">
+        <v>22</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>3</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>8</v>
+      </c>
+      <c r="I320">
+        <v>5</v>
+      </c>
+      <c r="J320">
+        <v>1.71</v>
+      </c>
+      <c r="K320">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11">
+      <c r="A321" t="s">
+        <v>21</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>3</v>
+      </c>
+      <c r="H321">
+        <v>5</v>
+      </c>
+      <c r="I321">
+        <v>8</v>
+      </c>
+      <c r="J321">
+        <v>0.4</v>
+      </c>
+      <c r="K321">
+        <v>1.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11506,7 +11716,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14672,6 +14882,66 @@
         <v>1.89</v>
       </c>
     </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161">
+        <v>2.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K321"/>
+  <dimension ref="A1:K339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11709,6 +11709,636 @@
         <v>1.71</v>
       </c>
     </row>
+    <row r="322" spans="1:11">
+      <c r="A322" t="s">
+        <v>27</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="G322">
+        <v>4</v>
+      </c>
+      <c r="H322">
+        <v>11</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322">
+        <v>2.2</v>
+      </c>
+      <c r="K322">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="F323">
+        <v>4</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+      <c r="I323">
+        <v>11</v>
+      </c>
+      <c r="J323">
+        <v>0.68</v>
+      </c>
+      <c r="K323">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11">
+      <c r="A324" t="s">
+        <v>25</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>1</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>3</v>
+      </c>
+      <c r="I324">
+        <v>4</v>
+      </c>
+      <c r="J324">
+        <v>1.26</v>
+      </c>
+      <c r="K324">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11">
+      <c r="A325" t="s">
+        <v>12</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>4</v>
+      </c>
+      <c r="I325">
+        <v>3</v>
+      </c>
+      <c r="J325">
+        <v>0.91</v>
+      </c>
+      <c r="K325">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11">
+      <c r="A326" t="s">
+        <v>15</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>3</v>
+      </c>
+      <c r="H326">
+        <v>4</v>
+      </c>
+      <c r="I326">
+        <v>10</v>
+      </c>
+      <c r="J326">
+        <v>1.99</v>
+      </c>
+      <c r="K326">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11">
+      <c r="A327" t="s">
+        <v>26</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>3</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+      <c r="H327">
+        <v>10</v>
+      </c>
+      <c r="I327">
+        <v>4</v>
+      </c>
+      <c r="J327">
+        <v>1.82</v>
+      </c>
+      <c r="K327">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11">
+      <c r="A328" t="s">
+        <v>23</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>5</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328">
+        <v>2</v>
+      </c>
+      <c r="J328">
+        <v>2.45</v>
+      </c>
+      <c r="K328">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11">
+      <c r="A329" t="s">
+        <v>18</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>5</v>
+      </c>
+      <c r="H329">
+        <v>2</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329">
+        <v>1.08</v>
+      </c>
+      <c r="K329">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11">
+      <c r="A330" t="s">
+        <v>13</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>4</v>
+      </c>
+      <c r="I330">
+        <v>4</v>
+      </c>
+      <c r="J330">
+        <v>1.24</v>
+      </c>
+      <c r="K330">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11">
+      <c r="A331" t="s">
+        <v>22</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>1</v>
+      </c>
+      <c r="H331">
+        <v>4</v>
+      </c>
+      <c r="I331">
+        <v>4</v>
+      </c>
+      <c r="J331">
+        <v>0.88</v>
+      </c>
+      <c r="K331">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11">
+      <c r="A332" t="s">
+        <v>21</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>4</v>
+      </c>
+      <c r="H332">
+        <v>5</v>
+      </c>
+      <c r="I332">
+        <v>6</v>
+      </c>
+      <c r="J332">
+        <v>0.57</v>
+      </c>
+      <c r="K332">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11">
+      <c r="A333" t="s">
+        <v>28</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>4</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="H333">
+        <v>6</v>
+      </c>
+      <c r="I333">
+        <v>5</v>
+      </c>
+      <c r="J333">
+        <v>3.28</v>
+      </c>
+      <c r="K333">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11">
+      <c r="A334" t="s">
+        <v>17</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>8</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>9</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>4.53</v>
+      </c>
+      <c r="K334">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11">
+      <c r="A335" t="s">
+        <v>16</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>8</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>9</v>
+      </c>
+      <c r="J335">
+        <v>0.27</v>
+      </c>
+      <c r="K335">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11">
+      <c r="A336" t="s">
+        <v>19</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+      <c r="G336">
+        <v>1</v>
+      </c>
+      <c r="H336">
+        <v>4</v>
+      </c>
+      <c r="I336">
+        <v>3</v>
+      </c>
+      <c r="J336">
+        <v>0.76</v>
+      </c>
+      <c r="K336">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11">
+      <c r="A337" t="s">
+        <v>24</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>3</v>
+      </c>
+      <c r="I337">
+        <v>4</v>
+      </c>
+      <c r="J337">
+        <v>1.07</v>
+      </c>
+      <c r="K337">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11">
+      <c r="A338" t="s">
+        <v>11</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="H338">
+        <v>9</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>3.32</v>
+      </c>
+      <c r="K338">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11">
+      <c r="A339" t="s">
+        <v>20</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339">
+        <v>9</v>
+      </c>
+      <c r="J339">
+        <v>0.55</v>
+      </c>
+      <c r="K339">
+        <v>3.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11716,7 +12346,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14942,6 +15572,186 @@
         <v>2.11</v>
       </c>
     </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>12</v>
+      </c>
+      <c r="D162" t="s">
+        <v>27</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+      <c r="D163" t="s">
+        <v>25</v>
+      </c>
+      <c r="E163" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" t="s">
+        <v>26</v>
+      </c>
+      <c r="F164">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" t="s">
+        <v>22</v>
+      </c>
+      <c r="F166">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>21</v>
+      </c>
+      <c r="E167" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>8</v>
+      </c>
+      <c r="C168">
+        <v>9</v>
+      </c>
+      <c r="D168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168">
+        <v>4.800000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169" t="s">
+        <v>24</v>
+      </c>
+      <c r="F169">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" t="s">
+        <v>20</v>
+      </c>
+      <c r="F170">
+        <v>3.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K339"/>
+  <dimension ref="A1:K343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12339,6 +12339,146 @@
         <v>3.32</v>
       </c>
     </row>
+    <row r="340" spans="1:11">
+      <c r="A340" t="s">
+        <v>14</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="G340">
+        <v>2</v>
+      </c>
+      <c r="H340">
+        <v>3</v>
+      </c>
+      <c r="I340">
+        <v>2</v>
+      </c>
+      <c r="J340">
+        <v>1.96</v>
+      </c>
+      <c r="K340">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11">
+      <c r="A341" t="s">
+        <v>23</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>2</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>2</v>
+      </c>
+      <c r="I341">
+        <v>3</v>
+      </c>
+      <c r="J341">
+        <v>1.97</v>
+      </c>
+      <c r="K341">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11">
+      <c r="A342" t="s">
+        <v>26</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>21</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>1.48</v>
+      </c>
+      <c r="K342">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11">
+      <c r="A343" t="s">
+        <v>19</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
+        <v>21</v>
+      </c>
+      <c r="J343">
+        <v>0.2</v>
+      </c>
+      <c r="K343">
+        <v>1.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12346,7 +12486,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15752,6 +15892,46 @@
         <v>3.87</v>
       </c>
     </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>21</v>
+      </c>
+      <c r="D172" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172">
+        <v>1.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K343"/>
+  <dimension ref="A1:K355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12479,6 +12479,426 @@
         <v>1.48</v>
       </c>
     </row>
+    <row r="344" spans="1:11">
+      <c r="A344" t="s">
+        <v>20</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
+      </c>
+      <c r="G344">
+        <v>1</v>
+      </c>
+      <c r="H344">
+        <v>3</v>
+      </c>
+      <c r="I344">
+        <v>6</v>
+      </c>
+      <c r="J344">
+        <v>0.85</v>
+      </c>
+      <c r="K344">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11">
+      <c r="A345" t="s">
+        <v>15</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345">
+        <v>1</v>
+      </c>
+      <c r="H345">
+        <v>6</v>
+      </c>
+      <c r="I345">
+        <v>3</v>
+      </c>
+      <c r="J345">
+        <v>2.57</v>
+      </c>
+      <c r="K345">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11">
+      <c r="A346" t="s">
+        <v>18</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>1</v>
+      </c>
+      <c r="H346">
+        <v>4</v>
+      </c>
+      <c r="I346">
+        <v>9</v>
+      </c>
+      <c r="J346">
+        <v>0.36</v>
+      </c>
+      <c r="K346">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11">
+      <c r="A347" t="s">
+        <v>22</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>1</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>9</v>
+      </c>
+      <c r="I347">
+        <v>4</v>
+      </c>
+      <c r="J347">
+        <v>1.75</v>
+      </c>
+      <c r="K347">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11">
+      <c r="A348" t="s">
+        <v>24</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>1</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>6</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348">
+        <v>0.61</v>
+      </c>
+      <c r="K348">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11">
+      <c r="A349" t="s">
+        <v>21</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>1</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+      <c r="I349">
+        <v>6</v>
+      </c>
+      <c r="J349">
+        <v>1.08</v>
+      </c>
+      <c r="K349">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11">
+      <c r="A350" t="s">
+        <v>28</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>3</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="H350">
+        <v>6</v>
+      </c>
+      <c r="I350">
+        <v>4</v>
+      </c>
+      <c r="J350">
+        <v>1.58</v>
+      </c>
+      <c r="K350">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11">
+      <c r="A351" t="s">
+        <v>13</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>3</v>
+      </c>
+      <c r="H351">
+        <v>4</v>
+      </c>
+      <c r="I351">
+        <v>6</v>
+      </c>
+      <c r="J351">
+        <v>0.14</v>
+      </c>
+      <c r="K351">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11">
+      <c r="A352" t="s">
+        <v>11</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>6</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352">
+        <v>0.78</v>
+      </c>
+      <c r="K352">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11">
+      <c r="A353" t="s">
+        <v>25</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>1</v>
+      </c>
+      <c r="H353">
+        <v>1</v>
+      </c>
+      <c r="I353">
+        <v>6</v>
+      </c>
+      <c r="J353">
+        <v>0.55</v>
+      </c>
+      <c r="K353">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11">
+      <c r="A354" t="s">
+        <v>16</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>4</v>
+      </c>
+      <c r="I354">
+        <v>3</v>
+      </c>
+      <c r="J354">
+        <v>0.4</v>
+      </c>
+      <c r="K354">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11">
+      <c r="A355" t="s">
+        <v>27</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>3</v>
+      </c>
+      <c r="I355">
+        <v>4</v>
+      </c>
+      <c r="J355">
+        <v>0.13</v>
+      </c>
+      <c r="K355">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12486,7 +12906,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15932,6 +16352,126 @@
         <v>1.68</v>
       </c>
     </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>13</v>
+      </c>
+      <c r="D174" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" t="s">
+        <v>22</v>
+      </c>
+      <c r="F174">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>24</v>
+      </c>
+      <c r="E175" t="s">
+        <v>21</v>
+      </c>
+      <c r="F175">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" t="s">
+        <v>25</v>
+      </c>
+      <c r="F177">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" t="s">
+        <v>27</v>
+      </c>
+      <c r="F178">
+        <v>0.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K355"/>
+  <dimension ref="A1:K357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12899,6 +12899,76 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="356" spans="1:11">
+      <c r="A356" t="s">
+        <v>21</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>3</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <v>4</v>
+      </c>
+      <c r="I356">
+        <v>7</v>
+      </c>
+      <c r="J356">
+        <v>1.5</v>
+      </c>
+      <c r="K356">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11">
+      <c r="A357" t="s">
+        <v>14</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>3</v>
+      </c>
+      <c r="H357">
+        <v>7</v>
+      </c>
+      <c r="I357">
+        <v>4</v>
+      </c>
+      <c r="J357">
+        <v>0.44</v>
+      </c>
+      <c r="K357">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12906,7 +12976,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16472,6 +16542,26 @@
         <v>0.53</v>
       </c>
     </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s">
+        <v>21</v>
+      </c>
+      <c r="E179" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179">
+        <v>1.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K357"/>
+  <dimension ref="A1:K363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12969,6 +12969,216 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="358" spans="1:11">
+      <c r="A358" t="s">
+        <v>15</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="G358">
+        <v>1</v>
+      </c>
+      <c r="H358">
+        <v>7</v>
+      </c>
+      <c r="I358">
+        <v>6</v>
+      </c>
+      <c r="J358">
+        <v>1.54</v>
+      </c>
+      <c r="K358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11">
+      <c r="A359" t="s">
+        <v>12</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359">
+        <v>1</v>
+      </c>
+      <c r="F359">
+        <v>1</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+      <c r="H359">
+        <v>6</v>
+      </c>
+      <c r="I359">
+        <v>7</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+      <c r="K359">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11">
+      <c r="A360" t="s">
+        <v>25</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>1</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>11</v>
+      </c>
+      <c r="I360">
+        <v>4</v>
+      </c>
+      <c r="J360">
+        <v>1.71</v>
+      </c>
+      <c r="K360">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11">
+      <c r="A361" t="s">
+        <v>20</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>1</v>
+      </c>
+      <c r="H361">
+        <v>4</v>
+      </c>
+      <c r="I361">
+        <v>11</v>
+      </c>
+      <c r="J361">
+        <v>0.87</v>
+      </c>
+      <c r="K361">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11">
+      <c r="A362" t="s">
+        <v>27</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>2</v>
+      </c>
+      <c r="G362">
+        <v>1</v>
+      </c>
+      <c r="H362">
+        <v>7</v>
+      </c>
+      <c r="I362">
+        <v>5</v>
+      </c>
+      <c r="J362">
+        <v>1.06</v>
+      </c>
+      <c r="K362">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11">
+      <c r="A363" t="s">
+        <v>24</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+      <c r="G363">
+        <v>2</v>
+      </c>
+      <c r="H363">
+        <v>5</v>
+      </c>
+      <c r="I363">
+        <v>7</v>
+      </c>
+      <c r="J363">
+        <v>1.65</v>
+      </c>
+      <c r="K363">
+        <v>1.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12976,7 +13186,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16562,6 +16772,66 @@
         <v>1.94</v>
       </c>
     </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>13</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>15</v>
+      </c>
+      <c r="D181" t="s">
+        <v>25</v>
+      </c>
+      <c r="E181" t="s">
+        <v>20</v>
+      </c>
+      <c r="F181">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>12</v>
+      </c>
+      <c r="D182" t="s">
+        <v>27</v>
+      </c>
+      <c r="E182" t="s">
+        <v>24</v>
+      </c>
+      <c r="F182">
+        <v>2.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K363"/>
+  <dimension ref="A1:K369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13179,6 +13179,216 @@
         <v>1.06</v>
       </c>
     </row>
+    <row r="364" spans="1:11">
+      <c r="A364" t="s">
+        <v>19</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>5</v>
+      </c>
+      <c r="I364">
+        <v>3</v>
+      </c>
+      <c r="J364">
+        <v>0.52</v>
+      </c>
+      <c r="K364">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11">
+      <c r="A365" t="s">
+        <v>16</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>1</v>
+      </c>
+      <c r="H365">
+        <v>3</v>
+      </c>
+      <c r="I365">
+        <v>5</v>
+      </c>
+      <c r="J365">
+        <v>0.2</v>
+      </c>
+      <c r="K365">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11">
+      <c r="A366" t="s">
+        <v>17</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>5</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <v>3</v>
+      </c>
+      <c r="I366">
+        <v>7</v>
+      </c>
+      <c r="J366">
+        <v>2.43</v>
+      </c>
+      <c r="K366">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11">
+      <c r="A367" t="s">
+        <v>11</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>5</v>
+      </c>
+      <c r="H367">
+        <v>7</v>
+      </c>
+      <c r="I367">
+        <v>3</v>
+      </c>
+      <c r="J367">
+        <v>0.34</v>
+      </c>
+      <c r="K367">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11">
+      <c r="A368" t="s">
+        <v>22</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368">
+        <v>2</v>
+      </c>
+      <c r="G368">
+        <v>2</v>
+      </c>
+      <c r="H368">
+        <v>6</v>
+      </c>
+      <c r="I368">
+        <v>11</v>
+      </c>
+      <c r="J368">
+        <v>2.06</v>
+      </c>
+      <c r="K368">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11">
+      <c r="A369" t="s">
+        <v>28</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+      <c r="F369">
+        <v>2</v>
+      </c>
+      <c r="G369">
+        <v>2</v>
+      </c>
+      <c r="H369">
+        <v>11</v>
+      </c>
+      <c r="I369">
+        <v>6</v>
+      </c>
+      <c r="J369">
+        <v>0.99</v>
+      </c>
+      <c r="K369">
+        <v>2.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13186,7 +13396,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16832,6 +17042,66 @@
         <v>2.71</v>
       </c>
     </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>8</v>
+      </c>
+      <c r="D183" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183" t="s">
+        <v>16</v>
+      </c>
+      <c r="F183">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>17</v>
+      </c>
+      <c r="E184" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185">
+        <v>3.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K369"/>
+  <dimension ref="A1:K371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13389,6 +13389,76 @@
         <v>2.06</v>
       </c>
     </row>
+    <row r="370" spans="1:11">
+      <c r="A370" t="s">
+        <v>23</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="F370">
+        <v>3</v>
+      </c>
+      <c r="G370">
+        <v>2</v>
+      </c>
+      <c r="H370">
+        <v>3</v>
+      </c>
+      <c r="I370">
+        <v>7</v>
+      </c>
+      <c r="J370">
+        <v>1.61</v>
+      </c>
+      <c r="K370">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11">
+      <c r="A371" t="s">
+        <v>26</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>1</v>
+      </c>
+      <c r="F371">
+        <v>2</v>
+      </c>
+      <c r="G371">
+        <v>3</v>
+      </c>
+      <c r="H371">
+        <v>7</v>
+      </c>
+      <c r="I371">
+        <v>3</v>
+      </c>
+      <c r="J371">
+        <v>1.58</v>
+      </c>
+      <c r="K371">
+        <v>1.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13396,7 +13466,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17102,6 +17172,26 @@
         <v>3.05</v>
       </c>
     </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <v>10</v>
+      </c>
+      <c r="D186" t="s">
+        <v>23</v>
+      </c>
+      <c r="E186" t="s">
+        <v>26</v>
+      </c>
+      <c r="F186">
+        <v>3.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K371"/>
+  <dimension ref="A1:K373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13459,6 +13459,76 @@
         <v>1.61</v>
       </c>
     </row>
+    <row r="372" spans="1:11">
+      <c r="A372" t="s">
+        <v>13</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <v>1</v>
+      </c>
+      <c r="H372">
+        <v>8</v>
+      </c>
+      <c r="I372">
+        <v>3</v>
+      </c>
+      <c r="J372">
+        <v>0.83</v>
+      </c>
+      <c r="K372">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11">
+      <c r="A373" t="s">
+        <v>18</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>1</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>3</v>
+      </c>
+      <c r="I373">
+        <v>8</v>
+      </c>
+      <c r="J373">
+        <v>0.33</v>
+      </c>
+      <c r="K373">
+        <v>0.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13466,7 +13536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17192,6 +17262,26 @@
         <v>3.19</v>
       </c>
     </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187">
+        <v>1.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K373"/>
+  <dimension ref="A1:K375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13529,6 +13529,76 @@
         <v>0.83</v>
       </c>
     </row>
+    <row r="374" spans="1:11">
+      <c r="A374" t="s">
+        <v>12</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374">
+        <v>2</v>
+      </c>
+      <c r="G374">
+        <v>1</v>
+      </c>
+      <c r="H374">
+        <v>4</v>
+      </c>
+      <c r="I374">
+        <v>7</v>
+      </c>
+      <c r="J374">
+        <v>1.45</v>
+      </c>
+      <c r="K374">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11">
+      <c r="A375" t="s">
+        <v>19</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375">
+        <v>1</v>
+      </c>
+      <c r="G375">
+        <v>2</v>
+      </c>
+      <c r="H375">
+        <v>7</v>
+      </c>
+      <c r="I375">
+        <v>4</v>
+      </c>
+      <c r="J375">
+        <v>2.06</v>
+      </c>
+      <c r="K375">
+        <v>1.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13536,7 +13606,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17282,6 +17352,26 @@
         <v>1.16</v>
       </c>
     </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>19</v>
+      </c>
+      <c r="F188">
+        <v>3.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K375"/>
+  <dimension ref="A1:K381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13599,6 +13599,216 @@
         <v>1.45</v>
       </c>
     </row>
+    <row r="376" spans="1:11">
+      <c r="A376" t="s">
+        <v>20</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376">
+        <v>2</v>
+      </c>
+      <c r="G376">
+        <v>1</v>
+      </c>
+      <c r="H376">
+        <v>4</v>
+      </c>
+      <c r="I376">
+        <v>3</v>
+      </c>
+      <c r="J376">
+        <v>1.05</v>
+      </c>
+      <c r="K376">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11">
+      <c r="A377" t="s">
+        <v>27</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+      <c r="F377">
+        <v>1</v>
+      </c>
+      <c r="G377">
+        <v>2</v>
+      </c>
+      <c r="H377">
+        <v>3</v>
+      </c>
+      <c r="I377">
+        <v>4</v>
+      </c>
+      <c r="J377">
+        <v>2.04</v>
+      </c>
+      <c r="K377">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11">
+      <c r="A378" t="s">
+        <v>14</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>1</v>
+      </c>
+      <c r="F378">
+        <v>1</v>
+      </c>
+      <c r="G378">
+        <v>1</v>
+      </c>
+      <c r="H378">
+        <v>9</v>
+      </c>
+      <c r="I378">
+        <v>6</v>
+      </c>
+      <c r="J378">
+        <v>1.08</v>
+      </c>
+      <c r="K378">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11">
+      <c r="A379" t="s">
+        <v>22</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+      <c r="F379">
+        <v>1</v>
+      </c>
+      <c r="G379">
+        <v>1</v>
+      </c>
+      <c r="H379">
+        <v>6</v>
+      </c>
+      <c r="I379">
+        <v>9</v>
+      </c>
+      <c r="J379">
+        <v>1.57</v>
+      </c>
+      <c r="K379">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11">
+      <c r="A380" t="s">
+        <v>26</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>2</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>8</v>
+      </c>
+      <c r="I380">
+        <v>6</v>
+      </c>
+      <c r="J380">
+        <v>2.06</v>
+      </c>
+      <c r="K380">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11">
+      <c r="A381" t="s">
+        <v>21</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>2</v>
+      </c>
+      <c r="H381">
+        <v>6</v>
+      </c>
+      <c r="I381">
+        <v>8</v>
+      </c>
+      <c r="J381">
+        <v>0.24</v>
+      </c>
+      <c r="K381">
+        <v>2.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13606,7 +13816,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17372,6 +17582,66 @@
         <v>3.51</v>
       </c>
     </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189" t="s">
+        <v>27</v>
+      </c>
+      <c r="F189">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190">
+        <v>15</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" t="s">
+        <v>22</v>
+      </c>
+      <c r="F190">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191">
+        <v>14</v>
+      </c>
+      <c r="D191" t="s">
+        <v>26</v>
+      </c>
+      <c r="E191" t="s">
+        <v>21</v>
+      </c>
+      <c r="F191">
+        <v>2.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K381"/>
+  <dimension ref="A1:K389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13809,6 +13809,286 @@
         <v>2.06</v>
       </c>
     </row>
+    <row r="382" spans="1:11">
+      <c r="A382" t="s">
+        <v>16</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>1</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>2</v>
+      </c>
+      <c r="I382">
+        <v>6</v>
+      </c>
+      <c r="J382">
+        <v>0.92</v>
+      </c>
+      <c r="K382">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11">
+      <c r="A383" t="s">
+        <v>23</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>1</v>
+      </c>
+      <c r="H383">
+        <v>6</v>
+      </c>
+      <c r="I383">
+        <v>2</v>
+      </c>
+      <c r="J383">
+        <v>0.96</v>
+      </c>
+      <c r="K383">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11">
+      <c r="A384" t="s">
+        <v>28</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+      <c r="F384">
+        <v>6</v>
+      </c>
+      <c r="G384">
+        <v>1</v>
+      </c>
+      <c r="H384">
+        <v>6</v>
+      </c>
+      <c r="I384">
+        <v>1</v>
+      </c>
+      <c r="J384">
+        <v>3.62</v>
+      </c>
+      <c r="K384">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11">
+      <c r="A385" t="s">
+        <v>18</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
+      </c>
+      <c r="G385">
+        <v>6</v>
+      </c>
+      <c r="H385">
+        <v>1</v>
+      </c>
+      <c r="I385">
+        <v>6</v>
+      </c>
+      <c r="J385">
+        <v>1.62</v>
+      </c>
+      <c r="K385">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11">
+      <c r="A386" t="s">
+        <v>24</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+      <c r="G386">
+        <v>3</v>
+      </c>
+      <c r="H386">
+        <v>2</v>
+      </c>
+      <c r="I386">
+        <v>4</v>
+      </c>
+      <c r="J386">
+        <v>0.59</v>
+      </c>
+      <c r="K386">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11">
+      <c r="A387" t="s">
+        <v>13</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387">
+        <v>3</v>
+      </c>
+      <c r="G387">
+        <v>1</v>
+      </c>
+      <c r="H387">
+        <v>4</v>
+      </c>
+      <c r="I387">
+        <v>2</v>
+      </c>
+      <c r="J387">
+        <v>2.1</v>
+      </c>
+      <c r="K387">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11">
+      <c r="A388" t="s">
+        <v>11</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388">
+        <v>2</v>
+      </c>
+      <c r="G388">
+        <v>1</v>
+      </c>
+      <c r="H388">
+        <v>6</v>
+      </c>
+      <c r="I388">
+        <v>1</v>
+      </c>
+      <c r="J388">
+        <v>2.94</v>
+      </c>
+      <c r="K388">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11">
+      <c r="A389" t="s">
+        <v>15</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+      <c r="G389">
+        <v>2</v>
+      </c>
+      <c r="H389">
+        <v>1</v>
+      </c>
+      <c r="I389">
+        <v>6</v>
+      </c>
+      <c r="J389">
+        <v>0.47</v>
+      </c>
+      <c r="K389">
+        <v>2.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13816,7 +14096,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17642,6 +17922,86 @@
         <v>2.3</v>
       </c>
     </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>8</v>
+      </c>
+      <c r="D192" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" t="s">
+        <v>23</v>
+      </c>
+      <c r="F192">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>7</v>
+      </c>
+      <c r="C193">
+        <v>7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" t="s">
+        <v>18</v>
+      </c>
+      <c r="F193">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>6</v>
+      </c>
+      <c r="D194" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>7</v>
+      </c>
+      <c r="D195" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195">
+        <v>3.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K389"/>
+  <dimension ref="A1:K393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14089,6 +14089,146 @@
         <v>2.94</v>
       </c>
     </row>
+    <row r="390" spans="1:11">
+      <c r="A390" t="s">
+        <v>25</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+      <c r="G390">
+        <v>2</v>
+      </c>
+      <c r="H390">
+        <v>5</v>
+      </c>
+      <c r="I390">
+        <v>4</v>
+      </c>
+      <c r="J390">
+        <v>0.3</v>
+      </c>
+      <c r="K390">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11">
+      <c r="A391" t="s">
+        <v>17</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>2</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>4</v>
+      </c>
+      <c r="I391">
+        <v>5</v>
+      </c>
+      <c r="J391">
+        <v>2.45</v>
+      </c>
+      <c r="K391">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11">
+      <c r="A392" t="s">
+        <v>23</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392">
+        <v>3</v>
+      </c>
+      <c r="G392">
+        <v>2</v>
+      </c>
+      <c r="H392">
+        <v>3</v>
+      </c>
+      <c r="I392">
+        <v>4</v>
+      </c>
+      <c r="J392">
+        <v>1.8</v>
+      </c>
+      <c r="K392">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11">
+      <c r="A393" t="s">
+        <v>12</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+      <c r="F393">
+        <v>2</v>
+      </c>
+      <c r="G393">
+        <v>3</v>
+      </c>
+      <c r="H393">
+        <v>4</v>
+      </c>
+      <c r="I393">
+        <v>3</v>
+      </c>
+      <c r="J393">
+        <v>1.23</v>
+      </c>
+      <c r="K393">
+        <v>1.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14096,7 +14236,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18002,6 +18142,46 @@
         <v>3.41</v>
       </c>
     </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196">
+        <v>9</v>
+      </c>
+      <c r="D196" t="s">
+        <v>25</v>
+      </c>
+      <c r="E196" t="s">
+        <v>17</v>
+      </c>
+      <c r="F196">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="C197">
+        <v>7</v>
+      </c>
+      <c r="D197" t="s">
+        <v>23</v>
+      </c>
+      <c r="E197" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197">
+        <v>3.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K393"/>
+  <dimension ref="A1:K399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14229,6 +14229,216 @@
         <v>1.8</v>
       </c>
     </row>
+    <row r="394" spans="1:11">
+      <c r="A394" t="s">
+        <v>15</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+      <c r="G394">
+        <v>1</v>
+      </c>
+      <c r="H394">
+        <v>5</v>
+      </c>
+      <c r="I394">
+        <v>5</v>
+      </c>
+      <c r="J394">
+        <v>0.27</v>
+      </c>
+      <c r="K394">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11">
+      <c r="A395" t="s">
+        <v>25</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>1</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+      <c r="H395">
+        <v>5</v>
+      </c>
+      <c r="I395">
+        <v>5</v>
+      </c>
+      <c r="J395">
+        <v>1.09</v>
+      </c>
+      <c r="K395">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11">
+      <c r="A396" t="s">
+        <v>21</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="E396">
+        <v>1</v>
+      </c>
+      <c r="F396">
+        <v>1</v>
+      </c>
+      <c r="G396">
+        <v>1</v>
+      </c>
+      <c r="H396">
+        <v>7</v>
+      </c>
+      <c r="I396">
+        <v>6</v>
+      </c>
+      <c r="J396">
+        <v>0.51</v>
+      </c>
+      <c r="K396">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11">
+      <c r="A397" t="s">
+        <v>20</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="E397">
+        <v>1</v>
+      </c>
+      <c r="F397">
+        <v>1</v>
+      </c>
+      <c r="G397">
+        <v>1</v>
+      </c>
+      <c r="H397">
+        <v>6</v>
+      </c>
+      <c r="I397">
+        <v>7</v>
+      </c>
+      <c r="J397">
+        <v>0.99</v>
+      </c>
+      <c r="K397">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11">
+      <c r="A398" t="s">
+        <v>22</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>0</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+      <c r="G398">
+        <v>2</v>
+      </c>
+      <c r="H398">
+        <v>8</v>
+      </c>
+      <c r="I398">
+        <v>2</v>
+      </c>
+      <c r="J398">
+        <v>1.39</v>
+      </c>
+      <c r="K398">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11">
+      <c r="A399" t="s">
+        <v>16</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="F399">
+        <v>2</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+      <c r="H399">
+        <v>2</v>
+      </c>
+      <c r="I399">
+        <v>8</v>
+      </c>
+      <c r="J399">
+        <v>1.54</v>
+      </c>
+      <c r="K399">
+        <v>1.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14236,7 +14446,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18182,6 +18392,66 @@
         <v>3.03</v>
       </c>
     </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>10</v>
+      </c>
+      <c r="D198" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" t="s">
+        <v>25</v>
+      </c>
+      <c r="F198">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199">
+        <v>13</v>
+      </c>
+      <c r="D199" t="s">
+        <v>21</v>
+      </c>
+      <c r="E199" t="s">
+        <v>20</v>
+      </c>
+      <c r="F199">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200" t="s">
+        <v>16</v>
+      </c>
+      <c r="F200">
+        <v>2.93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K399"/>
+  <dimension ref="A1:K411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14439,6 +14439,426 @@
         <v>1.39</v>
       </c>
     </row>
+    <row r="400" spans="1:11">
+      <c r="A400" t="s">
+        <v>18</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+      <c r="F400">
+        <v>3</v>
+      </c>
+      <c r="G400">
+        <v>3</v>
+      </c>
+      <c r="H400">
+        <v>4</v>
+      </c>
+      <c r="I400">
+        <v>7</v>
+      </c>
+      <c r="J400">
+        <v>1.98</v>
+      </c>
+      <c r="K400">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11">
+      <c r="A401" t="s">
+        <v>24</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+      <c r="F401">
+        <v>3</v>
+      </c>
+      <c r="G401">
+        <v>3</v>
+      </c>
+      <c r="H401">
+        <v>7</v>
+      </c>
+      <c r="I401">
+        <v>4</v>
+      </c>
+      <c r="J401">
+        <v>1.14</v>
+      </c>
+      <c r="K401">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11">
+      <c r="A402" t="s">
+        <v>13</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402">
+        <v>1</v>
+      </c>
+      <c r="F402">
+        <v>1</v>
+      </c>
+      <c r="G402">
+        <v>1</v>
+      </c>
+      <c r="H402">
+        <v>2</v>
+      </c>
+      <c r="I402">
+        <v>4</v>
+      </c>
+      <c r="J402">
+        <v>0.46</v>
+      </c>
+      <c r="K402">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11">
+      <c r="A403" t="s">
+        <v>26</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="E403">
+        <v>1</v>
+      </c>
+      <c r="F403">
+        <v>1</v>
+      </c>
+      <c r="G403">
+        <v>1</v>
+      </c>
+      <c r="H403">
+        <v>4</v>
+      </c>
+      <c r="I403">
+        <v>2</v>
+      </c>
+      <c r="J403">
+        <v>3.19</v>
+      </c>
+      <c r="K403">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11">
+      <c r="A404" t="s">
+        <v>28</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>4</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+      <c r="H404">
+        <v>8</v>
+      </c>
+      <c r="I404">
+        <v>1</v>
+      </c>
+      <c r="J404">
+        <v>3.49</v>
+      </c>
+      <c r="K404">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11">
+      <c r="A405" t="s">
+        <v>14</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405">
+        <v>0</v>
+      </c>
+      <c r="G405">
+        <v>4</v>
+      </c>
+      <c r="H405">
+        <v>1</v>
+      </c>
+      <c r="I405">
+        <v>8</v>
+      </c>
+      <c r="J405">
+        <v>0.37</v>
+      </c>
+      <c r="K405">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11">
+      <c r="A406" t="s">
+        <v>19</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+      <c r="F406">
+        <v>3</v>
+      </c>
+      <c r="G406">
+        <v>3</v>
+      </c>
+      <c r="H406">
+        <v>2</v>
+      </c>
+      <c r="I406">
+        <v>5</v>
+      </c>
+      <c r="J406">
+        <v>2.13</v>
+      </c>
+      <c r="K406">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11">
+      <c r="A407" t="s">
+        <v>17</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>3</v>
+      </c>
+      <c r="G407">
+        <v>3</v>
+      </c>
+      <c r="H407">
+        <v>5</v>
+      </c>
+      <c r="I407">
+        <v>2</v>
+      </c>
+      <c r="J407">
+        <v>0.97</v>
+      </c>
+      <c r="K407">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11">
+      <c r="A408" t="s">
+        <v>27</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408">
+        <v>0</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+      <c r="G408">
+        <v>4</v>
+      </c>
+      <c r="H408">
+        <v>1</v>
+      </c>
+      <c r="I408">
+        <v>3</v>
+      </c>
+      <c r="J408">
+        <v>0.84</v>
+      </c>
+      <c r="K408">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11">
+      <c r="A409" t="s">
+        <v>11</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="F409">
+        <v>4</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+      <c r="H409">
+        <v>3</v>
+      </c>
+      <c r="I409">
+        <v>1</v>
+      </c>
+      <c r="J409">
+        <v>1.61</v>
+      </c>
+      <c r="K409">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11">
+      <c r="A410" t="s">
+        <v>20</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+      <c r="G410">
+        <v>5</v>
+      </c>
+      <c r="H410">
+        <v>4</v>
+      </c>
+      <c r="I410">
+        <v>2</v>
+      </c>
+      <c r="J410">
+        <v>0.79</v>
+      </c>
+      <c r="K410">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11">
+      <c r="A411" t="s">
+        <v>23</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+      <c r="E411">
+        <v>0</v>
+      </c>
+      <c r="F411">
+        <v>5</v>
+      </c>
+      <c r="G411">
+        <v>0</v>
+      </c>
+      <c r="H411">
+        <v>2</v>
+      </c>
+      <c r="I411">
+        <v>4</v>
+      </c>
+      <c r="J411">
+        <v>1.74</v>
+      </c>
+      <c r="K411">
+        <v>0.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14446,7 +14866,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18452,6 +18872,126 @@
         <v>2.93</v>
       </c>
     </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s">
+        <v>18</v>
+      </c>
+      <c r="E201" t="s">
+        <v>24</v>
+      </c>
+      <c r="F201">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" t="s">
+        <v>26</v>
+      </c>
+      <c r="F202">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>9</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" t="s">
+        <v>14</v>
+      </c>
+      <c r="F203">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>6</v>
+      </c>
+      <c r="C204">
+        <v>7</v>
+      </c>
+      <c r="D204" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>4</v>
+      </c>
+      <c r="D205" t="s">
+        <v>27</v>
+      </c>
+      <c r="E205" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206" t="s">
+        <v>23</v>
+      </c>
+      <c r="F206">
+        <v>2.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K411"/>
+  <dimension ref="A1:K417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14859,6 +14859,216 @@
         <v>0.79</v>
       </c>
     </row>
+    <row r="412" spans="1:11">
+      <c r="A412" t="s">
+        <v>25</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+      <c r="E412">
+        <v>0</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+      <c r="H412">
+        <v>6</v>
+      </c>
+      <c r="I412">
+        <v>2</v>
+      </c>
+      <c r="J412">
+        <v>1.33</v>
+      </c>
+      <c r="K412">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11">
+      <c r="A413" t="s">
+        <v>19</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
+      <c r="H413">
+        <v>2</v>
+      </c>
+      <c r="I413">
+        <v>6</v>
+      </c>
+      <c r="J413">
+        <v>0.08</v>
+      </c>
+      <c r="K413">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11">
+      <c r="A414" t="s">
+        <v>24</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
+      <c r="F414">
+        <v>1</v>
+      </c>
+      <c r="G414">
+        <v>3</v>
+      </c>
+      <c r="H414">
+        <v>9</v>
+      </c>
+      <c r="I414">
+        <v>4</v>
+      </c>
+      <c r="J414">
+        <v>2.98</v>
+      </c>
+      <c r="K414">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11">
+      <c r="A415" t="s">
+        <v>22</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
+      <c r="F415">
+        <v>3</v>
+      </c>
+      <c r="G415">
+        <v>1</v>
+      </c>
+      <c r="H415">
+        <v>4</v>
+      </c>
+      <c r="I415">
+        <v>9</v>
+      </c>
+      <c r="J415">
+        <v>0.39</v>
+      </c>
+      <c r="K415">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11">
+      <c r="A416" t="s">
+        <v>11</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>3</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+      <c r="H416">
+        <v>5</v>
+      </c>
+      <c r="I416">
+        <v>4</v>
+      </c>
+      <c r="J416">
+        <v>2.54</v>
+      </c>
+      <c r="K416">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11">
+      <c r="A417" t="s">
+        <v>21</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>0</v>
+      </c>
+      <c r="G417">
+        <v>3</v>
+      </c>
+      <c r="H417">
+        <v>4</v>
+      </c>
+      <c r="I417">
+        <v>5</v>
+      </c>
+      <c r="J417">
+        <v>0.7</v>
+      </c>
+      <c r="K417">
+        <v>2.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14866,7 +15076,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18992,6 +19202,66 @@
         <v>2.53</v>
       </c>
     </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>8</v>
+      </c>
+      <c r="D207" t="s">
+        <v>25</v>
+      </c>
+      <c r="E207" t="s">
+        <v>19</v>
+      </c>
+      <c r="F207">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>13</v>
+      </c>
+      <c r="D208" t="s">
+        <v>24</v>
+      </c>
+      <c r="E208" t="s">
+        <v>22</v>
+      </c>
+      <c r="F208">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209">
+        <v>9</v>
+      </c>
+      <c r="D209" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" t="s">
+        <v>21</v>
+      </c>
+      <c r="F209">
+        <v>3.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K417"/>
+  <dimension ref="A1:K431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15069,6 +15069,496 @@
         <v>2.54</v>
       </c>
     </row>
+    <row r="418" spans="1:11">
+      <c r="A418" t="s">
+        <v>14</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>1</v>
+      </c>
+      <c r="I418">
+        <v>8</v>
+      </c>
+      <c r="J418">
+        <v>1.32</v>
+      </c>
+      <c r="K418">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11">
+      <c r="A419" t="s">
+        <v>18</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>8</v>
+      </c>
+      <c r="I419">
+        <v>1</v>
+      </c>
+      <c r="J419">
+        <v>0.88</v>
+      </c>
+      <c r="K419">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11">
+      <c r="A420" t="s">
+        <v>16</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <v>0</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>0</v>
+      </c>
+      <c r="G420">
+        <v>0</v>
+      </c>
+      <c r="H420">
+        <v>2</v>
+      </c>
+      <c r="I420">
+        <v>4</v>
+      </c>
+      <c r="J420">
+        <v>1.11</v>
+      </c>
+      <c r="K420">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11">
+      <c r="A421" t="s">
+        <v>13</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>0</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
+      <c r="H421">
+        <v>4</v>
+      </c>
+      <c r="I421">
+        <v>2</v>
+      </c>
+      <c r="J421">
+        <v>0.57</v>
+      </c>
+      <c r="K421">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11">
+      <c r="A422" t="s">
+        <v>17</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+      <c r="E422">
+        <v>1</v>
+      </c>
+      <c r="F422">
+        <v>3</v>
+      </c>
+      <c r="G422">
+        <v>2</v>
+      </c>
+      <c r="H422">
+        <v>12</v>
+      </c>
+      <c r="I422">
+        <v>1</v>
+      </c>
+      <c r="J422">
+        <v>2.11</v>
+      </c>
+      <c r="K422">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11">
+      <c r="A423" t="s">
+        <v>15</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423">
+        <v>1</v>
+      </c>
+      <c r="F423">
+        <v>2</v>
+      </c>
+      <c r="G423">
+        <v>3</v>
+      </c>
+      <c r="H423">
+        <v>1</v>
+      </c>
+      <c r="I423">
+        <v>12</v>
+      </c>
+      <c r="J423">
+        <v>0.62</v>
+      </c>
+      <c r="K423">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11">
+      <c r="A424" t="s">
+        <v>26</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>5</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+      <c r="H424">
+        <v>6</v>
+      </c>
+      <c r="I424">
+        <v>2</v>
+      </c>
+      <c r="J424">
+        <v>2.81</v>
+      </c>
+      <c r="K424">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11">
+      <c r="A425" t="s">
+        <v>28</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+      <c r="G425">
+        <v>5</v>
+      </c>
+      <c r="H425">
+        <v>2</v>
+      </c>
+      <c r="I425">
+        <v>6</v>
+      </c>
+      <c r="J425">
+        <v>0.46</v>
+      </c>
+      <c r="K425">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11">
+      <c r="A426" t="s">
+        <v>12</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+      <c r="E426">
+        <v>1</v>
+      </c>
+      <c r="F426">
+        <v>1</v>
+      </c>
+      <c r="G426">
+        <v>1</v>
+      </c>
+      <c r="H426">
+        <v>9</v>
+      </c>
+      <c r="I426">
+        <v>5</v>
+      </c>
+      <c r="J426">
+        <v>0.74</v>
+      </c>
+      <c r="K426">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11">
+      <c r="A427" t="s">
+        <v>27</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427">
+        <v>1</v>
+      </c>
+      <c r="F427">
+        <v>1</v>
+      </c>
+      <c r="G427">
+        <v>1</v>
+      </c>
+      <c r="H427">
+        <v>5</v>
+      </c>
+      <c r="I427">
+        <v>9</v>
+      </c>
+      <c r="J427">
+        <v>0.6</v>
+      </c>
+      <c r="K427">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11">
+      <c r="A428" t="s">
+        <v>14</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+      <c r="G428">
+        <v>3</v>
+      </c>
+      <c r="H428">
+        <v>1</v>
+      </c>
+      <c r="I428">
+        <v>13</v>
+      </c>
+      <c r="J428">
+        <v>0.21</v>
+      </c>
+      <c r="K428">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11">
+      <c r="A429" t="s">
+        <v>26</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>3</v>
+      </c>
+      <c r="G429">
+        <v>0</v>
+      </c>
+      <c r="H429">
+        <v>13</v>
+      </c>
+      <c r="I429">
+        <v>1</v>
+      </c>
+      <c r="J429">
+        <v>2.27</v>
+      </c>
+      <c r="K429">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11">
+      <c r="A430" t="s">
+        <v>21</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
+      <c r="F430">
+        <v>3</v>
+      </c>
+      <c r="G430">
+        <v>1</v>
+      </c>
+      <c r="H430">
+        <v>8</v>
+      </c>
+      <c r="I430">
+        <v>4</v>
+      </c>
+      <c r="J430">
+        <v>2.43</v>
+      </c>
+      <c r="K430">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11">
+      <c r="A431" t="s">
+        <v>16</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
+      <c r="F431">
+        <v>1</v>
+      </c>
+      <c r="G431">
+        <v>3</v>
+      </c>
+      <c r="H431">
+        <v>4</v>
+      </c>
+      <c r="I431">
+        <v>8</v>
+      </c>
+      <c r="J431">
+        <v>0.53</v>
+      </c>
+      <c r="K431">
+        <v>2.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15076,7 +15566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19262,6 +19752,146 @@
         <v>3.24</v>
       </c>
     </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>9</v>
+      </c>
+      <c r="D210" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>0</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>16</v>
+      </c>
+      <c r="E211" t="s">
+        <v>13</v>
+      </c>
+      <c r="F211">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>13</v>
+      </c>
+      <c r="D212" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>5</v>
+      </c>
+      <c r="C213">
+        <v>8</v>
+      </c>
+      <c r="D213" t="s">
+        <v>26</v>
+      </c>
+      <c r="E213" t="s">
+        <v>28</v>
+      </c>
+      <c r="F213">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214">
+        <v>14</v>
+      </c>
+      <c r="D214" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" t="s">
+        <v>27</v>
+      </c>
+      <c r="F214">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215">
+        <v>14</v>
+      </c>
+      <c r="D215" t="s">
+        <v>14</v>
+      </c>
+      <c r="E215" t="s">
+        <v>26</v>
+      </c>
+      <c r="F215">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216">
+        <v>4</v>
+      </c>
+      <c r="C216">
+        <v>12</v>
+      </c>
+      <c r="D216" t="s">
+        <v>21</v>
+      </c>
+      <c r="E216" t="s">
+        <v>16</v>
+      </c>
+      <c r="F216">
+        <v>2.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K431"/>
+  <dimension ref="A1:K439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15559,6 +15559,286 @@
         <v>2.43</v>
       </c>
     </row>
+    <row r="432" spans="1:11">
+      <c r="A432" t="s">
+        <v>18</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+      <c r="F432">
+        <v>2</v>
+      </c>
+      <c r="G432">
+        <v>1</v>
+      </c>
+      <c r="H432">
+        <v>10</v>
+      </c>
+      <c r="I432">
+        <v>3</v>
+      </c>
+      <c r="J432">
+        <v>0.79</v>
+      </c>
+      <c r="K432">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11">
+      <c r="A433" t="s">
+        <v>15</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>1</v>
+      </c>
+      <c r="F433">
+        <v>1</v>
+      </c>
+      <c r="G433">
+        <v>2</v>
+      </c>
+      <c r="H433">
+        <v>3</v>
+      </c>
+      <c r="I433">
+        <v>10</v>
+      </c>
+      <c r="J433">
+        <v>0.58</v>
+      </c>
+      <c r="K433">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11">
+      <c r="A434" t="s">
+        <v>27</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>1</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+      <c r="H434">
+        <v>4</v>
+      </c>
+      <c r="I434">
+        <v>4</v>
+      </c>
+      <c r="J434">
+        <v>0.36</v>
+      </c>
+      <c r="K434">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11">
+      <c r="A435" t="s">
+        <v>25</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+      <c r="G435">
+        <v>1</v>
+      </c>
+      <c r="H435">
+        <v>4</v>
+      </c>
+      <c r="I435">
+        <v>4</v>
+      </c>
+      <c r="J435">
+        <v>0.25</v>
+      </c>
+      <c r="K435">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11">
+      <c r="A436" t="s">
+        <v>19</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+      <c r="H436">
+        <v>6</v>
+      </c>
+      <c r="I436">
+        <v>5</v>
+      </c>
+      <c r="J436">
+        <v>0.44</v>
+      </c>
+      <c r="K436">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11">
+      <c r="A437" t="s">
+        <v>11</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>0</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
+      </c>
+      <c r="H437">
+        <v>5</v>
+      </c>
+      <c r="I437">
+        <v>6</v>
+      </c>
+      <c r="J437">
+        <v>0.79</v>
+      </c>
+      <c r="K437">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11">
+      <c r="A438" t="s">
+        <v>18</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>1</v>
+      </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+      <c r="H438">
+        <v>10</v>
+      </c>
+      <c r="I438">
+        <v>4</v>
+      </c>
+      <c r="J438">
+        <v>2.68</v>
+      </c>
+      <c r="K438">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11">
+      <c r="A439" t="s">
+        <v>12</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>0</v>
+      </c>
+      <c r="G439">
+        <v>1</v>
+      </c>
+      <c r="H439">
+        <v>4</v>
+      </c>
+      <c r="I439">
+        <v>10</v>
+      </c>
+      <c r="J439">
+        <v>1.26</v>
+      </c>
+      <c r="K439">
+        <v>2.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15566,7 +15846,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19892,6 +20172,86 @@
         <v>2.96</v>
       </c>
     </row>
+    <row r="217" spans="1:6">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>13</v>
+      </c>
+      <c r="D217" t="s">
+        <v>18</v>
+      </c>
+      <c r="E217" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>27</v>
+      </c>
+      <c r="E218" t="s">
+        <v>25</v>
+      </c>
+      <c r="F218">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s">
+        <v>19</v>
+      </c>
+      <c r="E219" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>14</v>
+      </c>
+      <c r="D220" t="s">
+        <v>18</v>
+      </c>
+      <c r="E220" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220">
+        <v>3.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K439"/>
+  <dimension ref="A1:K455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15771,7 +15771,7 @@
     </row>
     <row r="438" spans="1:11">
       <c r="A438" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -15837,6 +15837,566 @@
       </c>
       <c r="K439">
         <v>2.68</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11">
+      <c r="A440" t="s">
+        <v>23</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440">
+        <v>3</v>
+      </c>
+      <c r="H440">
+        <v>2</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <v>0.54</v>
+      </c>
+      <c r="K440">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11">
+      <c r="A441" t="s">
+        <v>17</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>3</v>
+      </c>
+      <c r="G441">
+        <v>0</v>
+      </c>
+      <c r="H441">
+        <v>0</v>
+      </c>
+      <c r="I441">
+        <v>2</v>
+      </c>
+      <c r="J441">
+        <v>2.27</v>
+      </c>
+      <c r="K441">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11">
+      <c r="A442" t="s">
+        <v>28</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="E442">
+        <v>1</v>
+      </c>
+      <c r="F442">
+        <v>3</v>
+      </c>
+      <c r="G442">
+        <v>1</v>
+      </c>
+      <c r="H442">
+        <v>6</v>
+      </c>
+      <c r="I442">
+        <v>4</v>
+      </c>
+      <c r="J442">
+        <v>1.75</v>
+      </c>
+      <c r="K442">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11">
+      <c r="A443" t="s">
+        <v>24</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443">
+        <v>1</v>
+      </c>
+      <c r="F443">
+        <v>1</v>
+      </c>
+      <c r="G443">
+        <v>3</v>
+      </c>
+      <c r="H443">
+        <v>4</v>
+      </c>
+      <c r="I443">
+        <v>6</v>
+      </c>
+      <c r="J443">
+        <v>0.62</v>
+      </c>
+      <c r="K443">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11">
+      <c r="A444" t="s">
+        <v>13</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+      <c r="G444">
+        <v>0</v>
+      </c>
+      <c r="H444">
+        <v>12</v>
+      </c>
+      <c r="I444">
+        <v>1</v>
+      </c>
+      <c r="J444">
+        <v>1.58</v>
+      </c>
+      <c r="K444">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11">
+      <c r="A445" t="s">
+        <v>20</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>0</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445">
+        <v>0</v>
+      </c>
+      <c r="H445">
+        <v>1</v>
+      </c>
+      <c r="I445">
+        <v>12</v>
+      </c>
+      <c r="J445">
+        <v>0.23</v>
+      </c>
+      <c r="K445">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11">
+      <c r="A446" t="s">
+        <v>24</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>1</v>
+      </c>
+      <c r="G446">
+        <v>0</v>
+      </c>
+      <c r="H446">
+        <v>2</v>
+      </c>
+      <c r="I446">
+        <v>7</v>
+      </c>
+      <c r="J446">
+        <v>1.29</v>
+      </c>
+      <c r="K446">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11">
+      <c r="A447" t="s">
+        <v>14</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+      <c r="G447">
+        <v>1</v>
+      </c>
+      <c r="H447">
+        <v>7</v>
+      </c>
+      <c r="I447">
+        <v>2</v>
+      </c>
+      <c r="J447">
+        <v>1.16</v>
+      </c>
+      <c r="K447">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11">
+      <c r="A448" t="s">
+        <v>12</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+      <c r="G448">
+        <v>0</v>
+      </c>
+      <c r="H448">
+        <v>4</v>
+      </c>
+      <c r="I448">
+        <v>7</v>
+      </c>
+      <c r="J448">
+        <v>0.9</v>
+      </c>
+      <c r="K448">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11">
+      <c r="A449" t="s">
+        <v>21</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+      <c r="G449">
+        <v>0</v>
+      </c>
+      <c r="H449">
+        <v>7</v>
+      </c>
+      <c r="I449">
+        <v>4</v>
+      </c>
+      <c r="J449">
+        <v>0.75</v>
+      </c>
+      <c r="K449">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11">
+      <c r="A450" t="s">
+        <v>15</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450">
+        <v>1</v>
+      </c>
+      <c r="F450">
+        <v>1</v>
+      </c>
+      <c r="G450">
+        <v>1</v>
+      </c>
+      <c r="H450">
+        <v>5</v>
+      </c>
+      <c r="I450">
+        <v>2</v>
+      </c>
+      <c r="J450">
+        <v>1.3</v>
+      </c>
+      <c r="K450">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11">
+      <c r="A451" t="s">
+        <v>19</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+      <c r="E451">
+        <v>1</v>
+      </c>
+      <c r="F451">
+        <v>1</v>
+      </c>
+      <c r="G451">
+        <v>1</v>
+      </c>
+      <c r="H451">
+        <v>2</v>
+      </c>
+      <c r="I451">
+        <v>5</v>
+      </c>
+      <c r="J451">
+        <v>1.15</v>
+      </c>
+      <c r="K451">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11">
+      <c r="A452" t="s">
+        <v>11</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+      <c r="E452">
+        <v>1</v>
+      </c>
+      <c r="F452">
+        <v>2</v>
+      </c>
+      <c r="G452">
+        <v>1</v>
+      </c>
+      <c r="H452">
+        <v>8</v>
+      </c>
+      <c r="I452">
+        <v>2</v>
+      </c>
+      <c r="J452">
+        <v>1.15</v>
+      </c>
+      <c r="K452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11">
+      <c r="A453" t="s">
+        <v>13</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453">
+        <v>1</v>
+      </c>
+      <c r="F453">
+        <v>1</v>
+      </c>
+      <c r="G453">
+        <v>2</v>
+      </c>
+      <c r="H453">
+        <v>2</v>
+      </c>
+      <c r="I453">
+        <v>8</v>
+      </c>
+      <c r="J453">
+        <v>2</v>
+      </c>
+      <c r="K453">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11">
+      <c r="A454" t="s">
+        <v>26</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454">
+        <v>1</v>
+      </c>
+      <c r="F454">
+        <v>4</v>
+      </c>
+      <c r="G454">
+        <v>1</v>
+      </c>
+      <c r="H454">
+        <v>12</v>
+      </c>
+      <c r="I454">
+        <v>3</v>
+      </c>
+      <c r="J454">
+        <v>3.06</v>
+      </c>
+      <c r="K454">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11">
+      <c r="A455" t="s">
+        <v>18</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455">
+        <v>1</v>
+      </c>
+      <c r="F455">
+        <v>1</v>
+      </c>
+      <c r="G455">
+        <v>4</v>
+      </c>
+      <c r="H455">
+        <v>3</v>
+      </c>
+      <c r="I455">
+        <v>12</v>
+      </c>
+      <c r="J455">
+        <v>0.3</v>
+      </c>
+      <c r="K455">
+        <v>3.06</v>
       </c>
     </row>
   </sheetData>
@@ -15846,7 +16406,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F228"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20243,13 +20803,173 @@
         <v>14</v>
       </c>
       <c r="D220" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E220" t="s">
         <v>12</v>
       </c>
       <c r="F220">
         <v>3.94</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>0</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>23</v>
+      </c>
+      <c r="E221" t="s">
+        <v>17</v>
+      </c>
+      <c r="F221">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <v>10</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" t="s">
+        <v>24</v>
+      </c>
+      <c r="F222">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>13</v>
+      </c>
+      <c r="D223" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" t="s">
+        <v>20</v>
+      </c>
+      <c r="F223">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224">
+        <v>0</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>9</v>
+      </c>
+      <c r="D224" t="s">
+        <v>24</v>
+      </c>
+      <c r="E224" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>0</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225" t="s">
+        <v>21</v>
+      </c>
+      <c r="F225">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226">
+        <v>2</v>
+      </c>
+      <c r="C226">
+        <v>7</v>
+      </c>
+      <c r="D226" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" t="s">
+        <v>19</v>
+      </c>
+      <c r="F226">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>3</v>
+      </c>
+      <c r="C227">
+        <v>10</v>
+      </c>
+      <c r="D227" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>5</v>
+      </c>
+      <c r="C228">
+        <v>15</v>
+      </c>
+      <c r="D228" t="s">
+        <v>26</v>
+      </c>
+      <c r="E228" t="s">
+        <v>18</v>
+      </c>
+      <c r="F228">
+        <v>3.36</v>
       </c>
     </row>
   </sheetData>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K455"/>
+  <dimension ref="A1:K469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16399,6 +16399,496 @@
         <v>3.06</v>
       </c>
     </row>
+    <row r="456" spans="1:11">
+      <c r="A456" t="s">
+        <v>25</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>1</v>
+      </c>
+      <c r="G456">
+        <v>0</v>
+      </c>
+      <c r="H456">
+        <v>2</v>
+      </c>
+      <c r="I456">
+        <v>3</v>
+      </c>
+      <c r="J456">
+        <v>0.84</v>
+      </c>
+      <c r="K456">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11">
+      <c r="A457" t="s">
+        <v>23</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>0</v>
+      </c>
+      <c r="G457">
+        <v>1</v>
+      </c>
+      <c r="H457">
+        <v>3</v>
+      </c>
+      <c r="I457">
+        <v>2</v>
+      </c>
+      <c r="J457">
+        <v>0.34</v>
+      </c>
+      <c r="K457">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11">
+      <c r="A458" t="s">
+        <v>20</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+      <c r="E458">
+        <v>1</v>
+      </c>
+      <c r="F458">
+        <v>1</v>
+      </c>
+      <c r="G458">
+        <v>2</v>
+      </c>
+      <c r="H458">
+        <v>3</v>
+      </c>
+      <c r="I458">
+        <v>10</v>
+      </c>
+      <c r="J458">
+        <v>0.79</v>
+      </c>
+      <c r="K458">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11">
+      <c r="A459" t="s">
+        <v>22</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+      <c r="E459">
+        <v>1</v>
+      </c>
+      <c r="F459">
+        <v>2</v>
+      </c>
+      <c r="G459">
+        <v>1</v>
+      </c>
+      <c r="H459">
+        <v>10</v>
+      </c>
+      <c r="I459">
+        <v>3</v>
+      </c>
+      <c r="J459">
+        <v>1.72</v>
+      </c>
+      <c r="K459">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11">
+      <c r="A460" t="s">
+        <v>16</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460">
+        <v>1</v>
+      </c>
+      <c r="H460">
+        <v>4</v>
+      </c>
+      <c r="I460">
+        <v>13</v>
+      </c>
+      <c r="J460">
+        <v>0.47</v>
+      </c>
+      <c r="K460">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11">
+      <c r="A461" t="s">
+        <v>28</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>1</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+      <c r="H461">
+        <v>13</v>
+      </c>
+      <c r="I461">
+        <v>4</v>
+      </c>
+      <c r="J461">
+        <v>1.68</v>
+      </c>
+      <c r="K461">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11">
+      <c r="A462" t="s">
+        <v>17</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+      <c r="E462">
+        <v>1</v>
+      </c>
+      <c r="F462">
+        <v>6</v>
+      </c>
+      <c r="G462">
+        <v>1</v>
+      </c>
+      <c r="H462">
+        <v>8</v>
+      </c>
+      <c r="I462">
+        <v>1</v>
+      </c>
+      <c r="J462">
+        <v>3.79</v>
+      </c>
+      <c r="K462">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11">
+      <c r="A463" t="s">
+        <v>27</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463">
+        <v>1</v>
+      </c>
+      <c r="E463">
+        <v>1</v>
+      </c>
+      <c r="F463">
+        <v>1</v>
+      </c>
+      <c r="G463">
+        <v>6</v>
+      </c>
+      <c r="H463">
+        <v>1</v>
+      </c>
+      <c r="I463">
+        <v>8</v>
+      </c>
+      <c r="J463">
+        <v>0.19</v>
+      </c>
+      <c r="K463">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11">
+      <c r="A464" t="s">
+        <v>13</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+      <c r="E464">
+        <v>1</v>
+      </c>
+      <c r="F464">
+        <v>1</v>
+      </c>
+      <c r="G464">
+        <v>2</v>
+      </c>
+      <c r="H464">
+        <v>2</v>
+      </c>
+      <c r="I464">
+        <v>5</v>
+      </c>
+      <c r="J464">
+        <v>1.96</v>
+      </c>
+      <c r="K464">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11">
+      <c r="A465" t="s">
+        <v>12</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465">
+        <v>1</v>
+      </c>
+      <c r="F465">
+        <v>2</v>
+      </c>
+      <c r="G465">
+        <v>1</v>
+      </c>
+      <c r="H465">
+        <v>5</v>
+      </c>
+      <c r="I465">
+        <v>2</v>
+      </c>
+      <c r="J465">
+        <v>2.47</v>
+      </c>
+      <c r="K465">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11">
+      <c r="A466" t="s">
+        <v>28</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>1</v>
+      </c>
+      <c r="G466">
+        <v>0</v>
+      </c>
+      <c r="H466">
+        <v>11</v>
+      </c>
+      <c r="I466">
+        <v>2</v>
+      </c>
+      <c r="J466">
+        <v>3.67</v>
+      </c>
+      <c r="K466">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11">
+      <c r="A467" t="s">
+        <v>20</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+      <c r="G467">
+        <v>1</v>
+      </c>
+      <c r="H467">
+        <v>2</v>
+      </c>
+      <c r="I467">
+        <v>11</v>
+      </c>
+      <c r="J467">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K467">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11">
+      <c r="A468" t="s">
+        <v>21</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468">
+        <v>1</v>
+      </c>
+      <c r="F468">
+        <v>1</v>
+      </c>
+      <c r="G468">
+        <v>2</v>
+      </c>
+      <c r="H468">
+        <v>3</v>
+      </c>
+      <c r="I468">
+        <v>7</v>
+      </c>
+      <c r="J468">
+        <v>1.22</v>
+      </c>
+      <c r="K468">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11">
+      <c r="A469" t="s">
+        <v>17</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
+      <c r="F469">
+        <v>2</v>
+      </c>
+      <c r="G469">
+        <v>1</v>
+      </c>
+      <c r="H469">
+        <v>7</v>
+      </c>
+      <c r="I469">
+        <v>3</v>
+      </c>
+      <c r="J469">
+        <v>1.93</v>
+      </c>
+      <c r="K469">
+        <v>1.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16406,7 +16896,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F228"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20972,6 +21462,146 @@
         <v>3.36</v>
       </c>
     </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>0</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>5</v>
+      </c>
+      <c r="D229" t="s">
+        <v>25</v>
+      </c>
+      <c r="E229" t="s">
+        <v>23</v>
+      </c>
+      <c r="F229">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>13</v>
+      </c>
+      <c r="D230" t="s">
+        <v>20</v>
+      </c>
+      <c r="E230" t="s">
+        <v>22</v>
+      </c>
+      <c r="F230">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>17</v>
+      </c>
+      <c r="D231" t="s">
+        <v>16</v>
+      </c>
+      <c r="E231" t="s">
+        <v>28</v>
+      </c>
+      <c r="F231">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <v>7</v>
+      </c>
+      <c r="C232">
+        <v>9</v>
+      </c>
+      <c r="D232" t="s">
+        <v>17</v>
+      </c>
+      <c r="E232" t="s">
+        <v>27</v>
+      </c>
+      <c r="F232">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>7</v>
+      </c>
+      <c r="D233" t="s">
+        <v>13</v>
+      </c>
+      <c r="E233" t="s">
+        <v>12</v>
+      </c>
+      <c r="F233">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>0</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>13</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" t="s">
+        <v>20</v>
+      </c>
+      <c r="F234">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>10</v>
+      </c>
+      <c r="D235" t="s">
+        <v>21</v>
+      </c>
+      <c r="E235" t="s">
+        <v>17</v>
+      </c>
+      <c r="F235">
+        <v>3.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K469"/>
+  <dimension ref="A1:K477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16889,6 +16889,286 @@
         <v>1.22</v>
       </c>
     </row>
+    <row r="470" spans="1:11">
+      <c r="A470" t="s">
+        <v>23</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+      <c r="F470">
+        <v>2</v>
+      </c>
+      <c r="G470">
+        <v>1</v>
+      </c>
+      <c r="H470">
+        <v>13</v>
+      </c>
+      <c r="I470">
+        <v>4</v>
+      </c>
+      <c r="J470">
+        <v>1.49</v>
+      </c>
+      <c r="K470">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11">
+      <c r="A471" t="s">
+        <v>15</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+      <c r="E471">
+        <v>1</v>
+      </c>
+      <c r="F471">
+        <v>1</v>
+      </c>
+      <c r="G471">
+        <v>2</v>
+      </c>
+      <c r="H471">
+        <v>4</v>
+      </c>
+      <c r="I471">
+        <v>13</v>
+      </c>
+      <c r="J471">
+        <v>2.02</v>
+      </c>
+      <c r="K471">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11">
+      <c r="A472" t="s">
+        <v>22</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>1</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
+      <c r="H472">
+        <v>7</v>
+      </c>
+      <c r="I472">
+        <v>2</v>
+      </c>
+      <c r="J472">
+        <v>0.73</v>
+      </c>
+      <c r="K472">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11">
+      <c r="A473" t="s">
+        <v>25</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+      <c r="G473">
+        <v>1</v>
+      </c>
+      <c r="H473">
+        <v>2</v>
+      </c>
+      <c r="I473">
+        <v>7</v>
+      </c>
+      <c r="J473">
+        <v>0.33</v>
+      </c>
+      <c r="K473">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11">
+      <c r="A474" t="s">
+        <v>27</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>0</v>
+      </c>
+      <c r="G474">
+        <v>0</v>
+      </c>
+      <c r="H474">
+        <v>2</v>
+      </c>
+      <c r="I474">
+        <v>5</v>
+      </c>
+      <c r="J474">
+        <v>0.63</v>
+      </c>
+      <c r="K474">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11">
+      <c r="A475" t="s">
+        <v>19</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+      <c r="G475">
+        <v>0</v>
+      </c>
+      <c r="H475">
+        <v>5</v>
+      </c>
+      <c r="I475">
+        <v>2</v>
+      </c>
+      <c r="J475">
+        <v>0.43</v>
+      </c>
+      <c r="K475">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11">
+      <c r="A476" t="s">
+        <v>24</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>1</v>
+      </c>
+      <c r="G476">
+        <v>0</v>
+      </c>
+      <c r="H476">
+        <v>1</v>
+      </c>
+      <c r="I476">
+        <v>10</v>
+      </c>
+      <c r="J476">
+        <v>1.18</v>
+      </c>
+      <c r="K476">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11">
+      <c r="A477" t="s">
+        <v>26</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>0</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+      <c r="H477">
+        <v>10</v>
+      </c>
+      <c r="I477">
+        <v>1</v>
+      </c>
+      <c r="J477">
+        <v>1.18</v>
+      </c>
+      <c r="K477">
+        <v>1.18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16896,7 +17176,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F235"/>
+  <dimension ref="A1:F239"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21602,6 +21882,86 @@
         <v>3.15</v>
       </c>
     </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>17</v>
+      </c>
+      <c r="D236" t="s">
+        <v>23</v>
+      </c>
+      <c r="E236" t="s">
+        <v>15</v>
+      </c>
+      <c r="F236">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>0</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>9</v>
+      </c>
+      <c r="D237" t="s">
+        <v>22</v>
+      </c>
+      <c r="E237" t="s">
+        <v>25</v>
+      </c>
+      <c r="F237">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>0</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>7</v>
+      </c>
+      <c r="D238" t="s">
+        <v>27</v>
+      </c>
+      <c r="E238" t="s">
+        <v>19</v>
+      </c>
+      <c r="F238">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>0</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>24</v>
+      </c>
+      <c r="E239" t="s">
+        <v>26</v>
+      </c>
+      <c r="F239">
+        <v>2.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K477"/>
+  <dimension ref="A1:K483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17169,6 +17169,216 @@
         <v>1.18</v>
       </c>
     </row>
+    <row r="478" spans="1:11">
+      <c r="A478" t="s">
+        <v>18</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+      <c r="G478">
+        <v>4</v>
+      </c>
+      <c r="H478">
+        <v>6</v>
+      </c>
+      <c r="I478">
+        <v>3</v>
+      </c>
+      <c r="J478">
+        <v>1.16</v>
+      </c>
+      <c r="K478">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11">
+      <c r="A479" t="s">
+        <v>16</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>4</v>
+      </c>
+      <c r="G479">
+        <v>0</v>
+      </c>
+      <c r="H479">
+        <v>3</v>
+      </c>
+      <c r="I479">
+        <v>6</v>
+      </c>
+      <c r="J479">
+        <v>0.79</v>
+      </c>
+      <c r="K479">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11">
+      <c r="A480" t="s">
+        <v>14</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480">
+        <v>1</v>
+      </c>
+      <c r="F480">
+        <v>3</v>
+      </c>
+      <c r="G480">
+        <v>5</v>
+      </c>
+      <c r="H480">
+        <v>4</v>
+      </c>
+      <c r="I480">
+        <v>6</v>
+      </c>
+      <c r="J480">
+        <v>2.02</v>
+      </c>
+      <c r="K480">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11">
+      <c r="A481" t="s">
+        <v>11</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481">
+        <v>1</v>
+      </c>
+      <c r="F481">
+        <v>5</v>
+      </c>
+      <c r="G481">
+        <v>3</v>
+      </c>
+      <c r="H481">
+        <v>6</v>
+      </c>
+      <c r="I481">
+        <v>4</v>
+      </c>
+      <c r="J481">
+        <v>3.76</v>
+      </c>
+      <c r="K481">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11">
+      <c r="A482" t="s">
+        <v>15</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>2</v>
+      </c>
+      <c r="G482">
+        <v>0</v>
+      </c>
+      <c r="H482">
+        <v>5</v>
+      </c>
+      <c r="I482">
+        <v>12</v>
+      </c>
+      <c r="J482">
+        <v>2</v>
+      </c>
+      <c r="K482">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11">
+      <c r="A483" t="s">
+        <v>27</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+      <c r="G483">
+        <v>2</v>
+      </c>
+      <c r="H483">
+        <v>12</v>
+      </c>
+      <c r="I483">
+        <v>5</v>
+      </c>
+      <c r="J483">
+        <v>0.91</v>
+      </c>
+      <c r="K483">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17176,7 +17386,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F239"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21962,6 +22172,66 @@
         <v>2.36</v>
       </c>
     </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>0</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <v>9</v>
+      </c>
+      <c r="D240" t="s">
+        <v>18</v>
+      </c>
+      <c r="E240" t="s">
+        <v>16</v>
+      </c>
+      <c r="F240">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>8</v>
+      </c>
+      <c r="C241">
+        <v>10</v>
+      </c>
+      <c r="D241" t="s">
+        <v>14</v>
+      </c>
+      <c r="E241" t="s">
+        <v>11</v>
+      </c>
+      <c r="F241">
+        <v>5.779999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+      <c r="C242">
+        <v>17</v>
+      </c>
+      <c r="D242" t="s">
+        <v>15</v>
+      </c>
+      <c r="E242" t="s">
+        <v>27</v>
+      </c>
+      <c r="F242">
+        <v>2.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K483"/>
+  <dimension ref="A1:K491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17379,6 +17379,286 @@
         <v>2</v>
       </c>
     </row>
+    <row r="484" spans="1:11">
+      <c r="A484" t="s">
+        <v>12</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="E484">
+        <v>1</v>
+      </c>
+      <c r="F484">
+        <v>3</v>
+      </c>
+      <c r="G484">
+        <v>2</v>
+      </c>
+      <c r="H484">
+        <v>1</v>
+      </c>
+      <c r="I484">
+        <v>5</v>
+      </c>
+      <c r="J484">
+        <v>1.2</v>
+      </c>
+      <c r="K484">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11">
+      <c r="A485" t="s">
+        <v>18</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485">
+        <v>1</v>
+      </c>
+      <c r="F485">
+        <v>2</v>
+      </c>
+      <c r="G485">
+        <v>3</v>
+      </c>
+      <c r="H485">
+        <v>5</v>
+      </c>
+      <c r="I485">
+        <v>1</v>
+      </c>
+      <c r="J485">
+        <v>1.94</v>
+      </c>
+      <c r="K485">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11">
+      <c r="A486" t="s">
+        <v>19</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>3</v>
+      </c>
+      <c r="G486">
+        <v>0</v>
+      </c>
+      <c r="H486">
+        <v>1</v>
+      </c>
+      <c r="I486">
+        <v>8</v>
+      </c>
+      <c r="J486">
+        <v>2.65</v>
+      </c>
+      <c r="K486">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11">
+      <c r="A487" t="s">
+        <v>13</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+      <c r="G487">
+        <v>3</v>
+      </c>
+      <c r="H487">
+        <v>8</v>
+      </c>
+      <c r="I487">
+        <v>1</v>
+      </c>
+      <c r="J487">
+        <v>0.15</v>
+      </c>
+      <c r="K487">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11">
+      <c r="A488" t="s">
+        <v>11</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>3</v>
+      </c>
+      <c r="H488">
+        <v>10</v>
+      </c>
+      <c r="I488">
+        <v>9</v>
+      </c>
+      <c r="J488">
+        <v>1.34</v>
+      </c>
+      <c r="K488">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11">
+      <c r="A489" t="s">
+        <v>23</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>3</v>
+      </c>
+      <c r="G489">
+        <v>0</v>
+      </c>
+      <c r="H489">
+        <v>9</v>
+      </c>
+      <c r="I489">
+        <v>10</v>
+      </c>
+      <c r="J489">
+        <v>1.31</v>
+      </c>
+      <c r="K489">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11">
+      <c r="A490" t="s">
+        <v>17</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+      <c r="E490">
+        <v>1</v>
+      </c>
+      <c r="F490">
+        <v>2</v>
+      </c>
+      <c r="G490">
+        <v>1</v>
+      </c>
+      <c r="H490">
+        <v>7</v>
+      </c>
+      <c r="I490">
+        <v>13</v>
+      </c>
+      <c r="J490">
+        <v>1.04</v>
+      </c>
+      <c r="K490">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11">
+      <c r="A491" t="s">
+        <v>28</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+      <c r="E491">
+        <v>1</v>
+      </c>
+      <c r="F491">
+        <v>1</v>
+      </c>
+      <c r="G491">
+        <v>2</v>
+      </c>
+      <c r="H491">
+        <v>13</v>
+      </c>
+      <c r="I491">
+        <v>7</v>
+      </c>
+      <c r="J491">
+        <v>1.15</v>
+      </c>
+      <c r="K491">
+        <v>1.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17386,7 +17666,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F242"/>
+  <dimension ref="A1:F246"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22232,6 +22512,86 @@
         <v>2.91</v>
       </c>
     </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>5</v>
+      </c>
+      <c r="C243">
+        <v>6</v>
+      </c>
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" t="s">
+        <v>18</v>
+      </c>
+      <c r="F243">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>9</v>
+      </c>
+      <c r="D244" t="s">
+        <v>19</v>
+      </c>
+      <c r="E244" t="s">
+        <v>13</v>
+      </c>
+      <c r="F244">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
+        <v>0</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245">
+        <v>19</v>
+      </c>
+      <c r="D245" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245" t="s">
+        <v>23</v>
+      </c>
+      <c r="F245">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246">
+        <v>3</v>
+      </c>
+      <c r="C246">
+        <v>20</v>
+      </c>
+      <c r="D246" t="s">
+        <v>17</v>
+      </c>
+      <c r="E246" t="s">
+        <v>28</v>
+      </c>
+      <c r="F246">
+        <v>2.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portugues.xlsx
+++ b/portugues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="32">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K491"/>
+  <dimension ref="A1:K521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17659,6 +17659,1056 @@
         <v>1.04</v>
       </c>
     </row>
+    <row r="492" spans="1:11">
+      <c r="A492" t="s">
+        <v>20</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492">
+        <v>2</v>
+      </c>
+      <c r="G492">
+        <v>3</v>
+      </c>
+      <c r="H492">
+        <v>4</v>
+      </c>
+      <c r="I492">
+        <v>4</v>
+      </c>
+      <c r="J492">
+        <v>1.33</v>
+      </c>
+      <c r="K492">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11">
+      <c r="A493" t="s">
+        <v>14</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
+      <c r="F493">
+        <v>3</v>
+      </c>
+      <c r="G493">
+        <v>2</v>
+      </c>
+      <c r="H493">
+        <v>4</v>
+      </c>
+      <c r="I493">
+        <v>4</v>
+      </c>
+      <c r="J493">
+        <v>1.11</v>
+      </c>
+      <c r="K493">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11">
+      <c r="A494" t="s">
+        <v>25</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="F494">
+        <v>2</v>
+      </c>
+      <c r="G494">
+        <v>2</v>
+      </c>
+      <c r="H494">
+        <v>2</v>
+      </c>
+      <c r="I494">
+        <v>6</v>
+      </c>
+      <c r="J494">
+        <v>1.08</v>
+      </c>
+      <c r="K494">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11">
+      <c r="A495" t="s">
+        <v>21</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
+      <c r="F495">
+        <v>2</v>
+      </c>
+      <c r="G495">
+        <v>2</v>
+      </c>
+      <c r="H495">
+        <v>6</v>
+      </c>
+      <c r="I495">
+        <v>2</v>
+      </c>
+      <c r="J495">
+        <v>1.67</v>
+      </c>
+      <c r="K495">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11">
+      <c r="A496" t="s">
+        <v>26</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496">
+        <v>1</v>
+      </c>
+      <c r="F496">
+        <v>1</v>
+      </c>
+      <c r="G496">
+        <v>2</v>
+      </c>
+      <c r="H496">
+        <v>6</v>
+      </c>
+      <c r="I496">
+        <v>1</v>
+      </c>
+      <c r="J496">
+        <v>1.17</v>
+      </c>
+      <c r="K496">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11">
+      <c r="A497" t="s">
+        <v>22</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+      <c r="E497">
+        <v>1</v>
+      </c>
+      <c r="F497">
+        <v>2</v>
+      </c>
+      <c r="G497">
+        <v>1</v>
+      </c>
+      <c r="H497">
+        <v>1</v>
+      </c>
+      <c r="I497">
+        <v>6</v>
+      </c>
+      <c r="J497">
+        <v>0.24</v>
+      </c>
+      <c r="K497">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11">
+      <c r="A498" t="s">
+        <v>16</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+      <c r="E498">
+        <v>0</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+      <c r="G498">
+        <v>0</v>
+      </c>
+      <c r="H498">
+        <v>2</v>
+      </c>
+      <c r="I498">
+        <v>6</v>
+      </c>
+      <c r="J498">
+        <v>0.59</v>
+      </c>
+      <c r="K498">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11">
+      <c r="A499" t="s">
+        <v>24</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499">
+        <v>0</v>
+      </c>
+      <c r="E499">
+        <v>0</v>
+      </c>
+      <c r="F499">
+        <v>0</v>
+      </c>
+      <c r="G499">
+        <v>0</v>
+      </c>
+      <c r="H499">
+        <v>6</v>
+      </c>
+      <c r="I499">
+        <v>2</v>
+      </c>
+      <c r="J499">
+        <v>0.49</v>
+      </c>
+      <c r="K499">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11">
+      <c r="A500" t="s">
+        <v>13</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+      <c r="E500">
+        <v>0</v>
+      </c>
+      <c r="F500">
+        <v>0</v>
+      </c>
+      <c r="G500">
+        <v>4</v>
+      </c>
+      <c r="H500">
+        <v>6</v>
+      </c>
+      <c r="I500">
+        <v>4</v>
+      </c>
+      <c r="J500">
+        <v>1.58</v>
+      </c>
+      <c r="K500">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11">
+      <c r="A501" t="s">
+        <v>17</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
+      <c r="F501">
+        <v>4</v>
+      </c>
+      <c r="G501">
+        <v>0</v>
+      </c>
+      <c r="H501">
+        <v>4</v>
+      </c>
+      <c r="I501">
+        <v>6</v>
+      </c>
+      <c r="J501">
+        <v>2.14</v>
+      </c>
+      <c r="K501">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11">
+      <c r="A502" t="s">
+        <v>22</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+      <c r="F502">
+        <v>1</v>
+      </c>
+      <c r="G502">
+        <v>1</v>
+      </c>
+      <c r="H502">
+        <v>8</v>
+      </c>
+      <c r="I502">
+        <v>1</v>
+      </c>
+      <c r="J502">
+        <v>1.27</v>
+      </c>
+      <c r="K502">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11">
+      <c r="A503" t="s">
+        <v>15</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503">
+        <v>1</v>
+      </c>
+      <c r="F503">
+        <v>1</v>
+      </c>
+      <c r="G503">
+        <v>1</v>
+      </c>
+      <c r="H503">
+        <v>1</v>
+      </c>
+      <c r="I503">
+        <v>8</v>
+      </c>
+      <c r="J503">
+        <v>0.91</v>
+      </c>
+      <c r="K503">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11">
+      <c r="A504" t="s">
+        <v>26</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+      <c r="E504">
+        <v>1</v>
+      </c>
+      <c r="F504">
+        <v>2</v>
+      </c>
+      <c r="G504">
+        <v>2</v>
+      </c>
+      <c r="H504">
+        <v>10</v>
+      </c>
+      <c r="I504">
+        <v>0</v>
+      </c>
+      <c r="J504">
+        <v>3.53</v>
+      </c>
+      <c r="K504">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11">
+      <c r="A505" t="s">
+        <v>12</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+      <c r="E505">
+        <v>1</v>
+      </c>
+      <c r="F505">
+        <v>2</v>
+      </c>
+      <c r="G505">
+        <v>2</v>
+      </c>
+      <c r="H505">
+        <v>0</v>
+      </c>
+      <c r="I505">
+        <v>10</v>
+      </c>
+      <c r="J505">
+        <v>2.09</v>
+      </c>
+      <c r="K505">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11">
+      <c r="A506" t="s">
+        <v>24</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+      <c r="E506">
+        <v>0</v>
+      </c>
+      <c r="F506">
+        <v>0</v>
+      </c>
+      <c r="G506">
+        <v>1</v>
+      </c>
+      <c r="H506">
+        <v>2</v>
+      </c>
+      <c r="I506">
+        <v>3</v>
+      </c>
+      <c r="J506">
+        <v>0.27</v>
+      </c>
+      <c r="K506">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11">
+      <c r="A507" t="s">
+        <v>11</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507">
+        <v>0</v>
+      </c>
+      <c r="E507">
+        <v>0</v>
+      </c>
+      <c r="F507">
+        <v>1</v>
+      </c>
+      <c r="G507">
+        <v>0</v>
+      </c>
+      <c r="H507">
+        <v>3</v>
+      </c>
+      <c r="I507">
+        <v>2</v>
+      </c>
+      <c r="J507">
+        <v>1.27</v>
+      </c>
+      <c r="K507">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11">
+      <c r="A508" t="s">
+        <v>21</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+      <c r="E508">
+        <v>1</v>
+      </c>
+      <c r="F508">
+        <v>2</v>
+      </c>
+      <c r="G508">
+        <v>2</v>
+      </c>
+      <c r="H508">
+        <v>10</v>
+      </c>
+      <c r="I508">
+        <v>1</v>
+      </c>
+      <c r="J508">
+        <v>2.6</v>
+      </c>
+      <c r="K508">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11">
+      <c r="A509" t="s">
+        <v>19</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+      <c r="E509">
+        <v>1</v>
+      </c>
+      <c r="F509">
+        <v>2</v>
+      </c>
+      <c r="G509">
+        <v>2</v>
+      </c>
+      <c r="H509">
+        <v>1</v>
+      </c>
+      <c r="I509">
+        <v>10</v>
+      </c>
+      <c r="J509">
+        <v>0.46</v>
+      </c>
+      <c r="K509">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11">
+      <c r="A510" t="s">
+        <v>14</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+      <c r="E510">
+        <v>1</v>
+      </c>
+      <c r="F510">
+        <v>2</v>
+      </c>
+      <c r="G510">
+        <v>2</v>
+      </c>
+      <c r="H510">
+        <v>5</v>
+      </c>
+      <c r="I510">
+        <v>8</v>
+      </c>
+      <c r="J510">
+        <v>0.77</v>
+      </c>
+      <c r="K510">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11">
+      <c r="A511" t="s">
+        <v>16</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511">
+        <v>1</v>
+      </c>
+      <c r="E511">
+        <v>1</v>
+      </c>
+      <c r="F511">
+        <v>2</v>
+      </c>
+      <c r="G511">
+        <v>2</v>
+      </c>
+      <c r="H511">
+        <v>8</v>
+      </c>
+      <c r="I511">
+        <v>5</v>
+      </c>
+      <c r="J511">
+        <v>1.92</v>
+      </c>
+      <c r="K511">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11">
+      <c r="A512" t="s">
+        <v>23</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+      <c r="E512">
+        <v>1</v>
+      </c>
+      <c r="F512">
+        <v>2</v>
+      </c>
+      <c r="G512">
+        <v>1</v>
+      </c>
+      <c r="H512">
+        <v>1</v>
+      </c>
+      <c r="I512">
+        <v>4</v>
+      </c>
+      <c r="J512">
+        <v>3.27</v>
+      </c>
+      <c r="K512">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11">
+      <c r="A513" t="s">
+        <v>27</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
+      <c r="F513">
+        <v>1</v>
+      </c>
+      <c r="G513">
+        <v>2</v>
+      </c>
+      <c r="H513">
+        <v>4</v>
+      </c>
+      <c r="I513">
+        <v>1</v>
+      </c>
+      <c r="J513">
+        <v>0.84</v>
+      </c>
+      <c r="K513">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11">
+      <c r="A514" t="s">
+        <v>28</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514">
+        <v>0</v>
+      </c>
+      <c r="E514">
+        <v>0</v>
+      </c>
+      <c r="F514">
+        <v>3</v>
+      </c>
+      <c r="G514">
+        <v>0</v>
+      </c>
+      <c r="H514">
+        <v>6</v>
+      </c>
+      <c r="I514">
+        <v>2</v>
+      </c>
+      <c r="J514">
+        <v>1.71</v>
+      </c>
+      <c r="K514">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11">
+      <c r="A515" t="s">
+        <v>25</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+      <c r="E515">
+        <v>0</v>
+      </c>
+      <c r="F515">
+        <v>0</v>
+      </c>
+      <c r="G515">
+        <v>3</v>
+      </c>
+      <c r="H515">
+        <v>2</v>
+      </c>
+      <c r="I515">
+        <v>6</v>
+      </c>
+      <c r="J515">
+        <v>0.25</v>
+      </c>
+      <c r="K515">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11">
+      <c r="A516" t="s">
+        <v>18</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+      <c r="E516">
+        <v>0</v>
+      </c>
+      <c r="F516">
+        <v>0</v>
+      </c>
+      <c r="G516">
+        <v>1</v>
+      </c>
+      <c r="H516">
+        <v>10</v>
+      </c>
+      <c r="I516">
+        <v>5</v>
+      </c>
+      <c r="J516">
+        <v>1.27</v>
+      </c>
+      <c r="K516">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11">
+      <c r="A517" t="s">
+        <v>20</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517">
+        <v>0</v>
+      </c>
+      <c r="E517">
+        <v>0</v>
+      </c>
+      <c r="F517">
+        <v>1</v>
+      </c>
+      <c r="G517">
+        <v>0</v>
+      </c>
+      <c r="H517">
+        <v>5</v>
+      </c>
+      <c r="I517">
+        <v>10</v>
+      </c>
+      <c r="J517">
+        <v>1.02</v>
+      </c>
+      <c r="K517">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11">
+      <c r="A518" t="s">
+        <v>12</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518">
+        <v>1</v>
+      </c>
+      <c r="E518">
+        <v>0</v>
+      </c>
+      <c r="F518">
+        <v>0</v>
+      </c>
+      <c r="G518">
+        <v>1</v>
+      </c>
+      <c r="H518">
+        <v>4</v>
+      </c>
+      <c r="I518">
+        <v>6</v>
+      </c>
+      <c r="J518">
+        <v>0.3</v>
+      </c>
+      <c r="K518">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11">
+      <c r="A519" t="s">
+        <v>17</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519">
+        <v>0</v>
+      </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
+      <c r="F519">
+        <v>1</v>
+      </c>
+      <c r="G519">
+        <v>0</v>
+      </c>
+      <c r="H519">
+        <v>6</v>
+      </c>
+      <c r="I519">
+        <v>4</v>
+      </c>
+      <c r="J519">
+        <v>0.76</v>
+      </c>
+      <c r="K519">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11">
+      <c r="A520" t="s">
+        <v>19</v>
+      </c>
+      <c r="B520">
+        <v>1</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
+      <c r="E520">
+        <v>1</v>
+      </c>
+      <c r="F520">
+        <v>1</v>
+      </c>
+      <c r="G520">
+        <v>1</v>
+      </c>
+      <c r="H520">
+        <v>4</v>
+      </c>
+      <c r="I520">
+        <v>6</v>
+      </c>
+      <c r="J520">
+        <v>0.62</v>
+      </c>
+      <c r="K520">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11">
+      <c r="A521" t="s">
+        <v>23</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521">
+        <v>1</v>
+      </c>
+      <c r="E521">
+        <v>1</v>
+      </c>
+      <c r="F521">
+        <v>1</v>
+      </c>
+      <c r="G521">
+        <v>1</v>
+      </c>
+      <c r="H521">
+        <v>6</v>
+      </c>
+      <c r="I521">
+        <v>4</v>
+      </c>
+      <c r="J521">
+        <v>1.07</v>
+      </c>
+      <c r="K521">
+        <v>0.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17666,7 +18716,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F246"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22592,6 +23642,306 @@
         <v>2.19</v>
       </c>
     </row>
+    <row r="247" spans="1:6">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>5</v>
+      </c>
+      <c r="C247">
+        <v>8</v>
+      </c>
+      <c r="D247" t="s">
+        <v>20</v>
+      </c>
+      <c r="E247" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <v>4</v>
+      </c>
+      <c r="C248">
+        <v>8</v>
+      </c>
+      <c r="D248" t="s">
+        <v>25</v>
+      </c>
+      <c r="E248" t="s">
+        <v>21</v>
+      </c>
+      <c r="F248">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>7</v>
+      </c>
+      <c r="D249" t="s">
+        <v>26</v>
+      </c>
+      <c r="E249" t="s">
+        <v>22</v>
+      </c>
+      <c r="F249">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250">
+        <v>0</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>8</v>
+      </c>
+      <c r="D250" t="s">
+        <v>16</v>
+      </c>
+      <c r="E250" t="s">
+        <v>24</v>
+      </c>
+      <c r="F250">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251">
+        <v>0</v>
+      </c>
+      <c r="B251">
+        <v>4</v>
+      </c>
+      <c r="C251">
+        <v>10</v>
+      </c>
+      <c r="D251" t="s">
+        <v>13</v>
+      </c>
+      <c r="E251" t="s">
+        <v>17</v>
+      </c>
+      <c r="F251">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="C252">
+        <v>9</v>
+      </c>
+      <c r="D252" t="s">
+        <v>22</v>
+      </c>
+      <c r="E252" t="s">
+        <v>15</v>
+      </c>
+      <c r="F252">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253">
+        <v>4</v>
+      </c>
+      <c r="C253">
+        <v>10</v>
+      </c>
+      <c r="D253" t="s">
+        <v>26</v>
+      </c>
+      <c r="E253" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253">
+        <v>5.619999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254">
+        <v>0</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>5</v>
+      </c>
+      <c r="D254" t="s">
+        <v>24</v>
+      </c>
+      <c r="E254" t="s">
+        <v>11</v>
+      </c>
+      <c r="F254">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s">
+        <v>21</v>
+      </c>
+      <c r="E255" t="s">
+        <v>19</v>
+      </c>
+      <c r="F255">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>4</v>
+      </c>
+      <c r="C256">
+        <v>13</v>
+      </c>
+      <c r="D256" t="s">
+        <v>14</v>
+      </c>
+      <c r="E256" t="s">
+        <v>16</v>
+      </c>
+      <c r="F256">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
+      <c r="D257" t="s">
+        <v>23</v>
+      </c>
+      <c r="E257" t="s">
+        <v>27</v>
+      </c>
+      <c r="F257">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>3</v>
+      </c>
+      <c r="C258">
+        <v>8</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" t="s">
+        <v>25</v>
+      </c>
+      <c r="F258">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259">
+        <v>0</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>15</v>
+      </c>
+      <c r="D259" t="s">
+        <v>18</v>
+      </c>
+      <c r="E259" t="s">
+        <v>20</v>
+      </c>
+      <c r="F259">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260">
+        <v>0</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>10</v>
+      </c>
+      <c r="D260" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" t="s">
+        <v>17</v>
+      </c>
+      <c r="F260">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261">
+        <v>10</v>
+      </c>
+      <c r="D261" t="s">
+        <v>19</v>
+      </c>
+      <c r="E261" t="s">
+        <v>23</v>
+      </c>
+      <c r="F261">
+        <v>1.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
